--- a/ExcelData/TC_Cleint.xlsx
+++ b/ExcelData/TC_Cleint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23340" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>cleintName</t>
   </si>
@@ -28,16 +28,10 @@
     <t>clientDescriptions</t>
   </si>
   <si>
-    <t>JhonsonBaby</t>
-  </si>
-  <si>
     <t>jhon and jhonson company</t>
   </si>
   <si>
-    <t>Jhonson</t>
-  </si>
-  <si>
-    <t>jhon and jhonson</t>
+    <t>Xenon</t>
   </si>
 </sst>
 </file>
@@ -376,7 +370,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,20 +389,13 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
